--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rickdev\work\Acklen\AcklenAvenue-QA-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2878D0EF-B947-409C-AB1A-A262FC68DE49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85709099-4975-4A0D-9C87-98884640E9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" firstSheet="6" activeTab="22" xr2:uid="{5B906A92-91B7-47D7-B44F-5AEAB6F32082}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="851" firstSheet="11" activeTab="24" xr2:uid="{5B906A92-91B7-47D7-B44F-5AEAB6F32082}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,8 @@
     <sheet name="Case 20" sheetId="25" r:id="rId21"/>
     <sheet name="Case 21" sheetId="26" r:id="rId22"/>
     <sheet name="Case 22" sheetId="27" r:id="rId23"/>
+    <sheet name="Case 23" sheetId="28" r:id="rId24"/>
+    <sheet name="Case 24" sheetId="29" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="162">
   <si>
     <t>Expected Results</t>
   </si>
@@ -109,9 +111,6 @@
     <t>Test Case 2</t>
   </si>
   <si>
-    <t>Select valet parking for more than 5 hours but less than 24</t>
-  </si>
-  <si>
     <t>Parking rate should be $18</t>
   </si>
   <si>
@@ -119,9 +118,6 @@
   </si>
   <si>
     <t>Test Case 3</t>
-  </si>
-  <si>
-    <t>Selecting more than 1 day of valet parking</t>
   </si>
   <si>
     <t>select 10/22/2020 as entry date</t>
@@ -520,6 +516,57 @@
   </si>
   <si>
     <t>$ 12.00 for 0 days, 0 hours and 0 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select valet parking for 6 hours </t>
+  </si>
+  <si>
+    <t>Selecting 3 days of valet parking</t>
+  </si>
+  <si>
+    <t>Test Case 23</t>
+  </si>
+  <si>
+    <t>Testing the AM and PM radio buttons</t>
+  </si>
+  <si>
+    <t>Select same day for entry and leaving</t>
+  </si>
+  <si>
+    <t>select 12 AM for entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select 12 PM for leaving </t>
+  </si>
+  <si>
+    <t>Select valet parking from dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should show 12 hours of time, costing $18 </t>
+  </si>
+  <si>
+    <t>Test Case 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting entry time after leaving time </t>
+  </si>
+  <si>
+    <t>App should prompt an error to the user and no cost should be displayed</t>
+  </si>
+  <si>
+    <t>Select valet parking from dropdown list</t>
+  </si>
+  <si>
+    <t>Select same day for entry and leaving dates</t>
+  </si>
+  <si>
+    <t>Set 12:00 PM for entry date</t>
+  </si>
+  <si>
+    <t>Set 12:00 AM for leaving date</t>
+  </si>
+  <si>
+    <t>Cost $0 but displays ( -1 days, 12 hours, 0 minutes)</t>
   </si>
 </sst>
 </file>
@@ -747,7 +794,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCAE2BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC3B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCAE2BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC3B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1392,7 +1467,7 @@
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D27"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,10 +1948,10 @@
     <mergeCell ref="B13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D27">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1902,7 +1977,7 @@
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1934,7 +2009,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -1995,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2012,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2029,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2046,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2063,7 +2138,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2080,7 +2155,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2234,7 +2309,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2263,6 +2338,1050 @@
       <c r="B24" s="7"/>
       <c r="C24" s="20">
         <v>61</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="A5:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:J25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D27">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{CCE205D9-593B-44E0-9452-AA7ABD7CC87B}">
+      <formula1>$AM$5:$AM$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14959B5C-15ED-4C62-B14F-E84478D0DD52}">
+  <dimension ref="A1:AM32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="AM5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="AM6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" ref="A9:A21" si="0">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="20">
+        <v>10</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="A5:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:J25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D27">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{E82A9B27-1812-4C22-9F82-D4050E555085}">
+      <formula1>$AM$5:$AM$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E0E375-F65C-44F1-8E10-4BAB54ADBB1F}">
+  <dimension ref="A1:AM32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="AM5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="AM6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" ref="A9:A21" si="0">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="20">
+        <v>9</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2404,7 +3523,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{CCE205D9-593B-44E0-9452-AA7ABD7CC87B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{424C2377-D60D-4961-852B-D886958850DF}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -2413,19 +3532,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14959B5C-15ED-4C62-B14F-E84478D0DD52}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1958D4E-F064-434F-BB80-7CCD1963AB42}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:J13"/>
+      <selection activeCell="B11" sqref="B11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2457,7 +3576,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -2518,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2535,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2552,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2569,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2586,7 +3705,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2603,7 +3722,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2619,7 +3738,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2755,7 +3876,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2782,8 +3903,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="20">
-        <v>10</v>
+      <c r="C24" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2925,7 +4046,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{E82A9B27-1812-4C22-9F82-D4050E555085}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{E20C1FD3-095C-43E8-8F7F-D812C8478837}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -2934,19 +4055,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E0E375-F65C-44F1-8E10-4BAB54ADBB1F}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB78798-14DD-485C-8B56-F31037AF469B}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:J13"/>
+      <selection activeCell="B11" sqref="B11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2978,7 +4099,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -3039,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3056,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3073,7 +4194,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3090,7 +4211,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3107,7 +4228,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3124,7 +4245,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3141,7 +4262,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -3157,7 +4278,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3172,7 +4295,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -3187,7 +4312,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -3278,7 +4405,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -3305,8 +4432,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="20">
-        <v>9</v>
+      <c r="C24" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -3334,7 +4461,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -3448,7 +4575,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{424C2377-D60D-4961-852B-D886958850DF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{50EF723A-B4F1-4BDC-A56D-C20929155500}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -3457,8 +4584,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1958D4E-F064-434F-BB80-7CCD1963AB42}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A726D98A-AA36-42E2-B2D6-6AE94B85BDFA}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3469,7 +4596,7 @@
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3501,7 +4628,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -3562,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3579,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3596,7 +4723,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3613,7 +4740,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3630,7 +4757,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3647,7 +4774,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -3663,9 +4790,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -3801,7 +4926,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -3828,8 +4953,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="11" t="s">
-        <v>91</v>
+      <c r="C24" s="20">
+        <v>14</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -3971,7 +5096,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{E20C1FD3-095C-43E8-8F7F-D812C8478837}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{10500807-0E6B-4AB6-B1BB-64A6CC40BBE7}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -3980,19 +5105,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB78798-14DD-485C-8B56-F31037AF469B}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCC3CB5-C321-4D98-ABCC-E7EDABF6E426}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="B13" sqref="B13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4024,7 +5149,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -4085,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4102,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4119,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4136,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4153,7 +5278,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4170,7 +5295,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4187,7 +5312,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4203,9 +5328,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -4220,9 +5343,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -4237,9 +5358,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -4330,7 +5449,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -4357,8 +5476,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="11" t="s">
-        <v>100</v>
+      <c r="C24" s="20">
+        <v>12</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -4386,7 +5505,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -4500,7 +5619,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{50EF723A-B4F1-4BDC-A56D-C20929155500}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{7AF39378-F016-4F36-9E77-BA4B8F75E40B}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -4509,8 +5628,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A726D98A-AA36-42E2-B2D6-6AE94B85BDFA}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207D9F20-9058-4526-B7C7-D1B23B723619}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4521,7 +5640,7 @@
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4553,7 +5672,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -4614,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4631,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4648,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4665,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4682,7 +5801,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4699,7 +5818,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -4715,7 +5834,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -4851,7 +5972,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -4878,8 +5999,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="20">
-        <v>14</v>
+      <c r="C24" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -5021,7 +6142,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{10500807-0E6B-4AB6-B1BB-64A6CC40BBE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{F343437E-A8F9-4139-923F-2AC66620D104}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -5030,19 +6151,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCC3CB5-C321-4D98-ABCC-E7EDABF6E426}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8D8F39-5BEB-4C0F-899F-03FAE393D220}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:J13"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5074,7 +6195,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -5135,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5152,7 +6273,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5169,7 +6290,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5186,7 +6307,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5203,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5220,7 +6341,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5237,7 +6358,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5253,7 +6374,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -5268,7 +6391,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -5283,7 +6408,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -5374,7 +6501,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -5401,8 +6528,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="20">
-        <v>12</v>
+      <c r="C24" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -5430,7 +6557,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -5544,7 +6671,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{7AF39378-F016-4F36-9E77-BA4B8F75E40B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{51E27E59-BDFA-4133-9F59-6421CCF523CB}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -5553,19 +6680,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207D9F20-9058-4526-B7C7-D1B23B723619}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2346CD1E-059A-4271-BB92-604858646266}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:J13"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -5597,7 +6724,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -5658,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5675,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5692,7 +6819,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5709,7 +6836,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5726,7 +6853,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5743,7 +6870,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5759,9 +6886,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -5897,7 +7022,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -5924,8 +7049,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="11" t="s">
-        <v>114</v>
+      <c r="C24" s="20">
+        <v>12</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -6067,7 +7192,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{F343437E-A8F9-4139-923F-2AC66620D104}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{C94677AE-38C7-443F-B2A3-D938F666D697}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6076,19 +7201,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8D8F39-5BEB-4C0F-899F-03FAE393D220}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F19DD37-38ED-47E4-8E42-7734EAB695ED}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:J13"/>
+      <selection activeCell="B8" sqref="B8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6119,29 +7244,29 @@
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -6198,7 +7323,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6215,7 +7340,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6232,7 +7357,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6249,7 +7374,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6266,7 +7391,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6282,9 +7407,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -6299,9 +7422,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -6316,9 +7437,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -6333,9 +7452,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -6425,8 +7542,531 @@
         <v>0</v>
       </c>
       <c r="B22" s="7"/>
+      <c r="C22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="15">
+        <v>12</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:J25"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="A5:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D27">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{7976D52F-E95F-412A-AEBD-9D3F8C9D6ED9}">
+      <formula1>$AM$5:$AM$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3C4819-0E46-4746-A134-CDE37476672F}">
+  <dimension ref="A1:AM32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="AM5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="AM6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" ref="A9:A21" si="0">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -6453,8 +8093,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="11" t="s">
-        <v>120</v>
+      <c r="C24" s="20">
+        <v>10</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -6482,7 +8122,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -6596,7 +8236,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{51E27E59-BDFA-4133-9F59-6421CCF523CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{9F4E1EA1-711A-493B-84B2-6E5EB592F960}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6605,19 +8245,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2346CD1E-059A-4271-BB92-604858646266}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09204EC5-1FFE-423E-986A-164964A745A5}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -6649,7 +8289,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -6710,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -6727,7 +8367,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6744,7 +8384,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6761,7 +8401,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6778,7 +8418,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6795,7 +8435,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -6811,7 +8451,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -6947,7 +8589,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -6974,8 +8616,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="20">
-        <v>12</v>
+      <c r="C24" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -7117,7 +8759,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{C94677AE-38C7-443F-B2A3-D938F666D697}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{F5050484-E5BB-4FA1-BB5E-ADE4B1A38E6D}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7126,19 +8768,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F19DD37-38ED-47E4-8E42-7734EAB695ED}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E9C8B-B44F-4B52-B5F5-AA8199E2C62A}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -7169,29 +8811,29 @@
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="C3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -7248,7 +8890,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -7265,7 +8907,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -7282,7 +8924,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -7299,7 +8941,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -7316,7 +8958,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -7332,7 +8974,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -7347,7 +8991,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -7362,7 +9008,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -7377,7 +9025,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -7467,531 +9117,8 @@
         <v>0</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="15">
-        <v>12</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:J25"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:J4"/>
-    <mergeCell ref="A5:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C26:D27">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{7976D52F-E95F-412A-AEBD-9D3F8C9D6ED9}">
-      <formula1>$AM$5:$AM$6</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3C4819-0E46-4746-A134-CDE37476672F}">
-  <dimension ref="A1:AM32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="AM5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="AM6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <f>A7+1</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <f t="shared" ref="A9:A21" si="0">A8+1</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -8018,8 +9145,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="20">
-        <v>10</v>
+      <c r="C24" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -8047,7 +9174,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -8161,7 +9288,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{9F4E1EA1-711A-493B-84B2-6E5EB592F960}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{0C21A476-2CC4-4259-B8D2-D166F1295779}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -8170,19 +9297,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09204EC5-1FFE-423E-986A-164964A745A5}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B3EE39-7283-4159-89A6-0343505D1BD6}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8214,7 +9341,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -8275,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -8292,7 +9419,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -8309,7 +9436,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -8326,7 +9453,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -8343,7 +9470,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -8359,9 +9486,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -8376,9 +9501,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -8514,7 +9637,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -8542,7 +9665,7 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="11" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -8649,18 +9772,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:J4"/>
-    <mergeCell ref="A5:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:J25"/>
     <mergeCell ref="A26:B27"/>
     <mergeCell ref="C26:D27"/>
     <mergeCell ref="B15:J15"/>
@@ -8669,11 +9785,18 @@
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:J25"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="A5:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D27">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -8684,7 +9807,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{F5050484-E5BB-4FA1-BB5E-ADE4B1A38E6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{2FD0799E-C7D5-4AF5-94E0-7BB2CE76274A}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -8693,19 +9816,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813E9C8B-B44F-4B52-B5F5-AA8199E2C62A}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E519832B-7557-4BDB-B5D0-F084C769000A}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8737,7 +9860,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -8798,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -8815,7 +9938,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -8832,7 +9955,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -8849,7 +9972,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -8866,7 +9989,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -8883,7 +10006,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -8899,9 +10022,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -8916,9 +10037,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -8933,9 +10052,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -8950,9 +10067,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -9043,7 +10158,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -9070,8 +10185,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="11" t="s">
-        <v>138</v>
+      <c r="C24" s="20">
+        <v>18</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -9099,7 +10214,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -9178,18 +10293,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:J4"/>
-    <mergeCell ref="A5:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:J25"/>
     <mergeCell ref="A26:B27"/>
     <mergeCell ref="C26:D27"/>
     <mergeCell ref="B15:J15"/>
@@ -9198,11 +10306,18 @@
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:J25"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="A5:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:D27">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -9213,7 +10328,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{0C21A476-2CC4-4259-B8D2-D166F1295779}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{058EF32B-269F-437E-8623-757A8FE2BCDD}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -9222,19 +10337,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B3EE39-7283-4159-89A6-0343505D1BD6}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A231451C-494A-4DFF-A6F3-D55BFF338952}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -9266,7 +10381,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -9327,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -9344,7 +10459,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -9361,7 +10476,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -9378,7 +10493,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -9395,7 +10510,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -9411,7 +10526,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -9562,7 +10679,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -9590,7 +10707,7 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="11" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -9732,7 +10849,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{2FD0799E-C7D5-4AF5-94E0-7BB2CE76274A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{D1AF0527-426E-452B-989A-A84521511F56}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -9746,7 +10863,7 @@
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9785,7 +10902,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="19" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -9863,7 +10980,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -9914,7 +11031,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -10083,7 +11200,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -10140,6 +11257,1044 @@
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
         <v>3</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="A5:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:J25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D27">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{9F92F7CF-CDB2-42B7-8215-E9ACB0175877}">
+      <formula1>$AM$5:$AM$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BBEE36-FB86-4116-A5EC-89581A4D5488}">
+  <dimension ref="A1:AM32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="AM5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="AM6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" ref="A9:A21" si="0">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="15">
+        <v>54</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="A5:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:J23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:J25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C26:D27">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{301F83FB-1451-4600-94CD-FE2D437185F5}">
+      <formula1>$AM$5:$AM$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E38AC0-B7DA-4ACF-A2C4-A513AA6E83C4}">
+  <dimension ref="A1:AM32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="AM5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="AM6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" ref="A9:A21" si="0">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -10253,7 +12408,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{9F92F7CF-CDB2-42B7-8215-E9ACB0175877}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{5B2C76F0-3269-4605-827F-B559635FDE33}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10262,19 +12417,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BBEE36-FB86-4116-A5EC-89581A4D5488}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1CFB2A-097F-4229-A443-02C186CA1D6B}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D27"/>
+      <selection activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -10306,7 +12461,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="19" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -10384,7 +12539,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -10400,9 +12555,7 @@
         <f t="shared" ref="A9:A21" si="0">A8+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -10417,9 +12570,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -10434,9 +12585,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -10451,9 +12600,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -10604,7 +12751,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -10631,8 +12778,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="15">
-        <v>54</v>
+      <c r="C24" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -10660,7 +12807,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -10774,7 +12921,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{301F83FB-1451-4600-94CD-FE2D437185F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{E1D6E77E-5B0E-404B-9B62-E5E5B9F36FE9}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10783,19 +12930,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E38AC0-B7DA-4ACF-A2C4-A513AA6E83C4}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D13C97A-8A36-4F5D-80B9-0F6A18D53E4D}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:J25"/>
+      <selection activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -10827,7 +12974,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -10888,7 +13035,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -10905,7 +13052,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -10922,7 +13069,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -10939,7 +13086,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -10955,7 +13102,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -11120,56 +13269,56 @@
         <v>0</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="C22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="C24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -11177,7 +13326,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -11291,7 +13440,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{5B2C76F0-3269-4605-827F-B559635FDE33}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{834FE033-6E13-431A-85FE-F270BF935703}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11300,19 +13449,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1CFB2A-097F-4229-A443-02C186CA1D6B}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C3D4D-85C5-4F93-8C30-B059AC7D1387}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -11343,29 +13492,29 @@
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -11422,7 +13571,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -11438,7 +13587,9 @@
         <f t="shared" ref="A9:A21" si="0">A8+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -11453,7 +13604,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -11468,7 +13621,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -11483,7 +13638,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -11633,56 +13790,56 @@
         <v>0</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="C22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="C24" s="20">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -11690,7 +13847,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -11804,7 +13961,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{E1D6E77E-5B0E-404B-9B62-E5E5B9F36FE9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{939A5F04-E3D5-4CAB-A88C-774A20FA3D99}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11813,19 +13970,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D13C97A-8A36-4F5D-80B9-0F6A18D53E4D}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6A8509-CF74-46DA-BEE7-5FCB2840F9B0}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J11"/>
+      <selection activeCell="B12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -11856,29 +14013,29 @@
         <v>8</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="C3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -11918,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -11935,7 +14092,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -11952,7 +14109,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -11969,7 +14126,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -11986,7 +14143,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -12002,7 +14159,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -12153,7 +14312,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -12180,28 +14339,28 @@
         <v>1</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="C24" s="20">
+        <v>10</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -12323,1048 +14482,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{834FE033-6E13-431A-85FE-F270BF935703}">
-      <formula1>$AM$5:$AM$6</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3C3D4D-85C5-4F93-8C30-B059AC7D1387}">
-  <dimension ref="A1:AM32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="AM5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="AM6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <f>A7+1</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <f t="shared" ref="A9:A21" si="0">A8+1</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="20">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:J4"/>
-    <mergeCell ref="A5:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:J25"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C26:D27">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{939A5F04-E3D5-4CAB-A88C-774A20FA3D99}">
-      <formula1>$AM$5:$AM$6</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6A8509-CF74-46DA-BEE7-5FCB2840F9B0}">
-  <dimension ref="A1:AM32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="AM5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="AM6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <f>A7+1</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <f t="shared" ref="A9:A21" si="0">A8+1</f>
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="20">
-        <v>10</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:J4"/>
-    <mergeCell ref="A5:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:J23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:J25"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C26:D27">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:D27" xr:uid="{455FA46B-9D95-438B-AC29-399AF3350779}">
       <formula1>$AM$5:$AM$6</formula1>
     </dataValidation>
